--- a/uploaded_files/sample_update_master_sugar_stock.xlsx
+++ b/uploaded_files/sample_update_master_sugar_stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaranakavisute/Downloads/sample_master_pricelist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tsubakimoto\Data\cleansing\master_4_share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C9D233-5D47-A640-AC70-7158D5A066C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345557B-A63B-480B-BCA7-65480606952A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AKT updated Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
   <si>
     <t>PO multiplier</t>
   </si>
@@ -555,12 +555,12 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
         <v>2</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>3</v>
       </c>
@@ -591,7 +591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -686,13 +686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>34</v>
       </c>
@@ -777,13 +771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -868,13 +856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>42</v>
       </c>
@@ -959,13 +941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1050,13 +1026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>46</v>
       </c>
@@ -1141,13 +1111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>48</v>
       </c>
@@ -1232,13 +1196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>50</v>
       </c>
@@ -1323,13 +1281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>51</v>
       </c>
@@ -1414,13 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>52</v>
       </c>
@@ -1505,13 +1451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>53</v>
       </c>
